--- a/pred_ohlcv/54_21/2020-01-23 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 SOC ohlcv.xlsx
@@ -4968,7 +4968,7 @@
         <v>-969741.4486111109</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-962918.6064111108</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-968724.8396111109</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-953822.4916111109</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-962421.7563111109</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-955070.2845111109</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-953365.776711111</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-973771.4092111109</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-154677.101981448</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-129660.510381448</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-188644.827581448</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-154468.282781448</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-199750.548481448</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-199750.548481448</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-169798.953181448</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-210179.871781448</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-210179.871781448</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-42991.32608144806</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-218745.501681448</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-218745.501681448</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-185559.836081448</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-134921.037481448</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-260828.0513814481</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-171427.713981448</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-171427.713981448</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-565089.311681448</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>166286.986818552</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>166286.986818552</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>67991.22521855199</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>148604.979818552</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>78943.38201855197</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>124222.525918552</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>361273.8297185519</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>405482.5119185519</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>366655.5768185519</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>424140.0796185519</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>400610.755118552</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>411953.010418552</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>402487.4216185519</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>347929.3418185519</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>314083.6358185519</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>323022.7623185519</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>597149.9748540942</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>651856.4607540942</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>539884.9505540942</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>580834.3883540941</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>531383.8926540941</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>518498.3571540941</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>524146.4377540941</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>554421.1129540942</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>522842.0437540942</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>625699.8910540942</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>675095.5101540942</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>641175.9104540942</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>684489.8300540942</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>664546.2921540942</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>678162.5232540942</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>605516.2844540941</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>764355.9148540942</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>668946.4274540942</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>639350.6443540942</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>198298.2668540942</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>249670.1984540942</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>260081.0459540942</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>159535.0909540942</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>151440.1181540942</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>185610.7200540942</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>149998.3188540942</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>143136.7875540942</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>114150.5078540942</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>92520.34415409419</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>66780.45795409419</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>135386.4469540942</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>154560.3653540942</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>194142.7250540942</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>226807.3082540942</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>186517.8300540942</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>138571.6994540942</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>148116.1279540942</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>420998.6052540942</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>89825.64045409422</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>115201.4096540942</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>115201.4096540942</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>115201.4096540942</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>99042.75665409422</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>107936.7436540942</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>107936.7436540942</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>107936.7436540942</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>99198.79185409422</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>99198.79185409422</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>131331.6527540942</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>20554.47675409421</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>102280.5910540942</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>48036.53485409421</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>153726.7526540942</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>153726.7526540942</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>83944.46775409422</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-14442.34184590577</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>92279.55925409423</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>450172.6862888884</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>609750.6020777774</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>458786.0726777774</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>345719.0842777774</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>402881.3978777773</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>346735.9125777773</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>474285.7711777773</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>393323.8444777773</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>305923.5737777773</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>247994.6462777773</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>247994.6462777773</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>133495.4090777773</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>255171.2524777773</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>200193.5081777773</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>92494.83627777731</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>34834.68537777731</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>47733.46677777731</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>24733.21087777731</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>103999.1896777773</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>205489.4533777773</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>205489.4533777773</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>121275.2545777773</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>53434.82817777731</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-87900.81952222269</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-262821.0290222227</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-208431.0795222227</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-402775.5500222227</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-368659.9642222227</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-414296.3454222227</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-448310.5916222227</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-424396.9190222227</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-306481.0752222227</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-187554.5166222227</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-271762.2911222227</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-93347.33292222273</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-237568.8450222227</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>289301.2901777773</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>129540.9461777773</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-12662.13755334972</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-86427.31425334972</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-86427.31425334972</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-66232.84925334972</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-71634.12765334973</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-45385.42665334973</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-79095.87095334973</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-174174.0485533497</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-394695.9422533497</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-385773.7131533497</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-428738.2179533498</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-383527.4283533497</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-258581.6174533498</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-291034.9757533498</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-330389.3252533498</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-286051.0103533498</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-256051.7337533498</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-287736.9256533498</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-75561.9817533498</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2296.011246650203</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-114699.2626533498</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-43721.63785334979</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-135135.2517533498</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-58264.83065334978</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>14286.95884665022</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-51066.72435334978</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-173066.2853533498</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-140050.9462533498</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-184782.4090533498</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-208457.5035533498</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>13762.73894665021</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-38363.78135334979</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-9737.772253349791</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-43238.08075334979</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-34688.10325334979</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-3754.789053349785</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-26328.37325334979</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-35190.72615334979</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>37071.28964665021</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>1733.353346650205</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-278507.7547533498</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-44476.94495334983</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-139401.2924533498</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-193224.1095533498</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-311372.6616533499</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-294407.0237533499</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-283096.3214533499</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-305813.6681533499</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-340155.4064533499</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-264777.4353533499</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-233409.9070533499</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-267693.9079533499</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-256694.8540533499</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-269643.1927533499</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-485755.7701533499</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-485705.7701533499</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-1452329.73415335</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-4748050.1169406</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-4806036.6597406</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-4564931.8718406</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-4819479.5410406</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-4783293.6062406</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-4802651.170240601</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-4827259.5909406</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-4911738.2642406</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-4890353.0855406</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-5110938.0523406</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-5110938.0523406</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-5193077.7660406</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-4819794.139940601</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-4813871.269640602</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-4782364.818840602</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-4697267.816740602</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-4845697.567840602</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-4639381.498027963</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-4685456.564527962</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-4717911.057627963</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-5338883.822341172</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-5338883.822341172</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-5388836.821229457</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-5475711.484529456</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-5776578.496720382</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-5892722.505420382</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-5806232.524720382</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-5345087.757220382</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-5369390.629920382</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-5369390.629920382</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-5379895.326620382</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-5303864.364920382</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-5238136.348320382</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-5231244.843220382</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-5247048.256620382</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-5277861.181520382</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-5217639.448820382</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-5236840.385020383</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-5199025.015820383</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-5208000.898020383</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-5309774.741082039</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-5309774.741082039</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-7292402.150482039</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-7261335.533618076</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-7296398.533018076</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-7289294.052318076</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-7315765.028918075</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-7356616.972318076</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-7356616.972318076</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-7289058.696918076</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-7466987.956918076</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-7564140.321418076</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-7448988.622118075</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-7558514.727918076</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-7548991.178318077</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-7421214.132018077</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-7454738.254826209</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-7432047.636126208</v>
       </c>
       <c r="H1179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-7460359.590426208</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-7430227.071226208</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-7603019.455287184</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-7376398.927887184</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-7366695.180787183</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-7357053.653987183</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-7365391.168387183</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-7357974.079087183</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-7349695.148287183</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-7360636.605487183</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-7380837.535087183</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-7368510.245587183</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-7362361.286287183</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-7354375.219387183</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-7375318.513787183</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-7396077.084287183</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-7406100.976187184</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-7384608.422987184</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-7329090.341587184</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-7405421.048287184</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-7453517.967787184</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-7502067.790187184</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-7122049.720687184</v>
       </c>
       <c r="H1208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-7108132.620987184</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-7125252.045887184</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-7138204.854087184</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-7172776.338487185</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-7156807.265387185</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-7156807.265387185</v>
       </c>
       <c r="H1215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-7203783.591087185</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-7260754.282687184</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-7216743.061487185</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-7362918.058787185</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-7508467.715787184</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-7459049.690087184</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-7472283.429187184</v>
       </c>
       <c r="H1223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-7444907.631787185</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-7471584.586087185</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-7459953.433187185</v>
       </c>
       <c r="H1226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-7484408.514887185</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-7522114.293787185</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-7217570.214387185</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-7239058.324387185</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-7141801.050387185</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-7271182.222687185</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-7470810.470087186</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-7470810.470087186</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-7513952.870887185</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-7447086.178087185</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-7268262.011687185</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-7393822.355587184</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-7416703.362187184</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-7468024.869587185</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-7733537.820487184</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-7733537.820487184</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-7695960.955287185</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-7615790.151887185</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-7539711.674587185</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-7556540.759087184</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-7525319.193687185</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-7473770.663187184</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-7593900.042587184</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-7607807.301187185</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-7640017.457587184</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-7616185.141287184</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-7596873.786287184</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-7596873.786287184</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-7637782.494487184</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-7610324.265187184</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-7623174.680787184</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-7616005.803587184</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-7629072.449887184</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-7621262.582687184</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-7605858.279487184</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-7640361.196387184</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-7602115.348887184</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-7635203.894187184</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-7684615.758787184</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-7538573.892787184</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-7510858.688887184</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-7559086.095687184</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-7508735.946287183</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-7522311.086387184</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 SOC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-325392.3245111111</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-964241.705911111</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-964241.705911111</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-970278.702211111</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-963539.785611111</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-969741.4486111109</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-962918.6064111108</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-968724.8396111109</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-953822.4916111109</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-962421.7563111109</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-955070.2845111109</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-953365.776711111</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-973771.4092111109</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-154677.101981448</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-129660.510381448</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-188644.827581448</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-154468.282781448</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-199750.548481448</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-199750.548481448</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-169798.953181448</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-210179.871781448</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-210179.871781448</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-42991.32608144806</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-218745.501681448</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-218745.501681448</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-185559.836081448</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-134921.037481448</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-260828.0513814481</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-171427.713981448</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-171427.713981448</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-565089.311681448</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>166286.986818552</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>166286.986818552</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>67991.22521855199</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>148604.979818552</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>78943.38201855197</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>124222.525918552</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>361273.8297185519</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>405482.5119185519</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>366655.5768185519</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>424140.0796185519</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>400610.755118552</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>411953.010418552</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>402487.4216185519</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>347929.3418185519</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>314083.6358185519</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>323022.7623185519</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>668946.4274540942</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>639350.6443540942</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>216428.2193540942</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>151907.3196540942</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>140369.3708540942</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>143136.7875540942</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>114150.5078540942</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>92520.34415409419</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>66780.45795409419</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>186517.8300540942</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>115201.4096540942</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>115201.4096540942</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>99042.75665409422</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>107936.7436540942</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>99198.79185409422</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>131331.6527540942</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>20554.47675409421</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>102280.5910540942</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>48036.53485409421</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>153726.7526540942</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>153726.7526540942</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>83944.46775409422</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-14442.34184590577</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>92279.55925409423</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>450172.6862888884</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>609750.6020777774</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>458786.0726777774</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>345719.0842777774</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>402881.3978777773</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>346735.9125777773</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>474285.7711777773</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>393323.8444777773</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>305923.5737777773</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>247994.6462777773</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>247994.6462777773</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>133495.4090777773</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>255171.2524777773</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>200193.5081777773</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>92494.83627777731</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>34834.68537777731</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>47733.46677777731</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>24733.21087777731</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>103999.1896777773</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>205489.4533777773</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>205489.4533777773</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>121275.2545777773</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>53434.82817777731</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-87900.81952222269</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-262821.0290222227</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-208431.0795222227</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-402775.5500222227</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-368659.9642222227</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-414296.3454222227</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-448310.5916222227</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-424396.9190222227</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-306481.0752222227</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-187554.5166222227</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-271762.2911222227</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-93347.33292222273</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-237568.8450222227</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>289301.2901777773</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>129540.9461777773</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-12662.13755334972</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-86427.31425334972</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-86427.31425334972</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-103516.0866533497</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-66232.84925334972</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>104825.3254466503</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-71634.12765334973</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-45385.42665334973</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-79095.87095334973</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-31435.18545334973</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-14961.41845334973</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-84339.43925334973</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-174174.0485533497</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-265741.8966533497</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-212680.0847533497</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-193362.2314533498</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-256110.9945533497</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-394695.9422533497</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-385773.7131533497</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-362340.0909533497</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-372602.9647533497</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-365868.1871533497</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-428738.2179533498</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-383527.4283533497</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-258581.6174533498</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-291034.9757533498</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-330389.3252533498</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-286051.0103533498</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-256051.7337533498</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-287736.9256533498</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-181165.3389533498</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-181165.3389533498</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-75561.9817533498</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2296.011246650203</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-114699.2626533498</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-43721.63785334979</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-135135.2517533498</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-58264.83065334978</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>14286.95884665022</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-51066.72435334978</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-173066.2853533498</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-140050.9462533498</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-184782.4090533498</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-208457.5035533498</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-233762.9354533498</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-112907.4738533498</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>13762.73894665021</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-38363.78135334979</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-9737.772253349791</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-43238.08075334979</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-34688.10325334979</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-3754.789053349785</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-26328.37325334979</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-35190.72615334979</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>37071.28964665021</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>1733.353346650205</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-278507.7547533498</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-224463.5784533498</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-44476.94495334983</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-139401.2924533498</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-193224.1095533498</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-311372.6616533499</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-294407.0237533499</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-283096.3214533499</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-305813.6681533499</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-340155.4064533499</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-369324.9731533499</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-349741.2044533499</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-296982.2683533499</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-264777.4353533499</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-233409.9070533499</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-267693.9079533499</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-256694.8540533499</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-269643.1927533499</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-485755.7701533499</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-485705.7701533499</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-1476072.20895335</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-1452329.73415335</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-2200778.363816882</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-2001438.926116882</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-2063755.910316882</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-2063755.910316882</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-2141341.832016882</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-2141341.832016882</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-2009214.428316882</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-2009214.428316882</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-1970952.374016882</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-1970952.374016882</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-2047064.379116882</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-2683616.440916882</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-4748050.1169406</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-4806036.6597406</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-4564931.8718406</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-4819479.5410406</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-4783293.6062406</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-4802651.170240601</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-4827259.5909406</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-4911738.2642406</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-4890353.0855406</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-5110938.0523406</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-5110938.0523406</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-5193077.7660406</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-4819794.139940601</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-4813871.269640602</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-4782364.818840602</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-4697267.816740602</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-4845697.567840602</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-4639381.498027963</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-4685456.564527962</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-4717911.057627963</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-5338883.822341172</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-5338883.822341172</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-5388836.821229457</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-5475711.484529456</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-5776578.496720382</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-5892722.505420382</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-5806232.524720382</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-5345087.757220382</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-5369390.629920382</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-5369390.629920382</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-5379895.326620382</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-5303864.364920382</v>
       </c>
       <c r="H1117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-5238136.348320382</v>
       </c>
       <c r="H1121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-5231244.843220382</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-5247048.256620382</v>
       </c>
       <c r="H1123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-5277861.181520382</v>
       </c>
       <c r="H1124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-5217639.448820382</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-5236840.385020383</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-5199025.015820383</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-5208000.898020383</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-5309774.741082039</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-5309774.741082039</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-7292402.150482039</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-7261335.533618076</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-7296398.533018076</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-7289294.052318076</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-7315765.028918075</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-7356616.972318076</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-7568922.042118076</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-7568922.042118076</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-7577904.659418076</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-7558514.727918076</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-7421214.132018077</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-7445063.267118077</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-7473597.060018077</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-7454738.254826209</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-7432047.636126208</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-7432047.636126208</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-7460359.590426208</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-7366695.180787183</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-7349695.148287183</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-7360636.605487183</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-7380837.535087183</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-7368510.245587183</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-7362361.286287183</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-7354375.219387183</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-7375318.513787183</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-7396077.084287183</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-7406100.976187184</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-7384608.422987184</v>
       </c>
       <c r="H1201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-7329090.341587184</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-7405421.048287184</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-7453517.967787184</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-7502067.790187184</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-7157894.038687184</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-7175793.390887183</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-7122049.720687184</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-7129100.622887184</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-7108132.620987184</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-7125252.045887184</v>
       </c>
       <c r="H1211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-7138204.854087184</v>
       </c>
       <c r="H1212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-7172776.338487185</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-7156807.265387185</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-7156807.265387185</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-7203783.591087185</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-7260754.282687184</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-7216743.061487185</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-7362918.058787185</v>
       </c>
       <c r="H1219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-7508467.715787184</v>
       </c>
       <c r="H1220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-7459049.690087184</v>
       </c>
       <c r="H1222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-7472283.429187184</v>
       </c>
       <c r="H1223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-7444907.631787185</v>
       </c>
       <c r="H1224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-7471584.586087185</v>
       </c>
       <c r="H1225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-7459953.433187185</v>
       </c>
       <c r="H1226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-7484408.514887185</v>
       </c>
       <c r="H1227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-7522114.293787185</v>
       </c>
       <c r="H1228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-7217570.214387185</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-7239058.324387185</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-7141801.050387185</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-7271182.222687185</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-7289575.038387185</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-7470810.470087186</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-7470810.470087186</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-7513952.870887185</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-7447086.178087185</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-7268262.011687185</v>
       </c>
       <c r="H1253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-7393822.355587184</v>
       </c>
       <c r="H1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-7416703.362187184</v>
       </c>
       <c r="H1261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-7468024.869587185</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-7733537.820487184</v>
       </c>
       <c r="H1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-7733537.820487184</v>
       </c>
       <c r="H1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-7695960.955287185</v>
       </c>
       <c r="H1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-7615790.151887185</v>
       </c>
       <c r="H1266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-7539711.674587185</v>
       </c>
       <c r="H1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-7556540.759087184</v>
       </c>
       <c r="H1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-7525319.193687185</v>
       </c>
       <c r="H1269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-7473770.663187184</v>
       </c>
       <c r="H1270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-7593900.042587184</v>
       </c>
       <c r="H1271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-7607807.301187185</v>
       </c>
       <c r="H1272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-7640017.457587184</v>
       </c>
       <c r="H1273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-7616185.141287184</v>
       </c>
       <c r="H1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-7596873.786287184</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-7596873.786287184</v>
       </c>
       <c r="H1276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-7637782.494487184</v>
       </c>
       <c r="H1277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-7610324.265187184</v>
       </c>
       <c r="H1278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-7623174.680787184</v>
       </c>
       <c r="H1279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-7616005.803587184</v>
       </c>
       <c r="H1280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-7629072.449887184</v>
       </c>
       <c r="H1281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-7621262.582687184</v>
       </c>
       <c r="H1282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-7605858.279487184</v>
       </c>
       <c r="H1283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-7640361.196387184</v>
       </c>
       <c r="H1284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-7602115.348887184</v>
       </c>
       <c r="H1285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-7635203.894187184</v>
       </c>
       <c r="H1286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-7684615.758787184</v>
       </c>
       <c r="H1287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-7538573.892787184</v>
       </c>
       <c r="H1288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-7510858.688887184</v>
       </c>
       <c r="H1289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-7559086.095687184</v>
       </c>
       <c r="H1290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-7508735.946287183</v>
       </c>
       <c r="H1291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-7522311.086387184</v>
       </c>
       <c r="H1292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
